--- a/biology/Botanique/Biancaea_decapetala/Biancaea_decapetala.xlsx
+++ b/biology/Botanique/Biancaea_decapetala/Biancaea_decapetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biancaea decapetala est une espèce d'arbustes lianescents originaire d'Inde. L'espèce est parfois appelée Cassie. On la rencontre aussi sous les noms de Liane croc de chien (en Nouvelle-Calédonie)[1], Sappan, Bois sappan ou Liane sappan. Ces trois derniers sont abusifs et ne devraient être utilisés que pour l'espèce voisine Biancaea sappan L.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biancaea decapetala est une espèce d'arbustes lianescents originaire d'Inde. L'espèce est parfois appelée Cassie. On la rencontre aussi sous les noms de Liane croc de chien (en Nouvelle-Calédonie), Sappan, Bois sappan ou Liane sappan. Ces trois derniers sont abusifs et ne devraient être utilisés que pour l'espèce voisine Biancaea sappan L.
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce a un port arbustif et peut atteindre 10 mètres de haut[1].
-Feuilles
-Les feuilles sont composées, bipennées, et munies de crochets sous le rachis principal, ce qui vaut à l'espèce l'appellation de Liane croc de chien en Nouvelle-Calédonie. Elles peuvent mesurer jusqu'à 30 centimètres de long[1].
-Fleurs
-Les inflorescences sont en racèmes et mesurent jusqu'à 40 centimètres de long. Les fleurs jaunes sont dissymétriques. Les étamines sortent de la corolle et présentent des anthères marron[1].
-Fruits
-Les fruits sont des gousses elliptiques à l'extrémité fortement acuminée. Chaque gousse contient entre 4 et 8 graines noires ou marbrées[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a un port arbustif et peut atteindre 10 mètres de haut.
 </t>
         </is>
       </c>
@@ -546,13 +557,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont composées, bipennées, et munies de crochets sous le rachis principal, ce qui vaut à l'espèce l'appellation de Liane croc de chien en Nouvelle-Calédonie. Elles peuvent mesurer jusqu'à 30 centimètres de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont en racèmes et mesurent jusqu'à 40 centimètres de long. Les fleurs jaunes sont dissymétriques. Les étamines sortent de la corolle et présentent des anthères marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses elliptiques à l'extrémité fortement acuminée. Chaque gousse contient entre 4 et 8 graines noires ou marbrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biancaea_decapetala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle a été introduite dès 1855 en tant que plante ornementale[2]. Elle représente aussi un danger en Afrique du Sud et à Hawaï[1].
-Elle forme des fourrés impénétrables aussi bien pour les hommes que pour les animaux. Elle étouffe les autres plantes, se développant parfois sur le houppier des arbres adjacents et affaissant ce faisant la canopée. Lorsqu'elle prolifère en bord de cours d'eau, elle peut ralentir le courant et provoquer des inondations[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle a été introduite dès 1855 en tant que plante ornementale. Elle représente aussi un danger en Afrique du Sud et à Hawaï.
+Elle forme des fourrés impénétrables aussi bien pour les hommes que pour les animaux. Elle étouffe les autres plantes, se développant parfois sur le houppier des arbres adjacents et affaissant ce faisant la canopée. Lorsqu'elle prolifère en bord de cours d'eau, elle peut ralentir le courant et provoquer des inondations.
 </t>
         </is>
       </c>
